--- a/artfynd/A 33783-2025 artfynd.xlsx
+++ b/artfynd/A 33783-2025 artfynd.xlsx
@@ -1823,12 +1823,7 @@
         <v>124734950</v>
       </c>
       <c r="B12" t="n">
-        <v>56839</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
